--- a/Images_and_Data/Embedded_Qs/2_4_DEQ.xlsx
+++ b/Images_and_Data/Embedded_Qs/2_4_DEQ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFB9587-3944-499D-A3A8-47AF14E92A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="1125" windowWidth="20685" windowHeight="13995" activeTab="10" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="690" yWindow="1125" windowWidth="20685" windowHeight="13995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="3" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="9_" sheetId="11" r:id="rId10"/>
     <sheet name="10_" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,9 +95,6 @@
     <t>Use the generalized linear equation just above this question.  'n' is the number of time steps, which in this case are years.</t>
   </si>
   <si>
-    <t>If our initial population is 6 million, and the population grows at a rate of α=.03, what is the population after 20 years?</t>
-  </si>
-  <si>
     <t>Use the generalized equation just above this question.  'n' is the number of time steps, which in this case are years.</t>
   </si>
   <si>
@@ -325,12 +321,15 @@
   </si>
   <si>
     <t>This shows the changing temperature of a cup of coffee with no mixing involved.  If there was mixing, you'd see a sudden change of temperature at the moment of mixing.</t>
+  </si>
+  <si>
+    <t>If our initial population is 6 billion, and the population grows at a rate of α=.03, what is the population after 20 years (in billions)?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -690,7 +689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E4A378-C52B-465E-833B-740E46756CFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -735,7 +734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E093B755-9AB8-4E1B-8B0C-EEE31300B75D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -752,7 +751,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -763,7 +762,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -771,18 +770,18 @@
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -794,10 +793,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2044596-6F70-4740-B23F-AD187D852577}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -811,7 +810,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -822,35 +821,35 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -859,11 +858,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57791D97-FA66-4511-9C06-60107C3234C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +876,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -896,7 +895,7 @@
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -905,7 +904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E1BC2E-64C7-4733-84BB-7AC79569B2D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -923,7 +922,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -934,35 +933,35 @@
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -970,13 +969,13 @@
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -991,11 +990,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CD8C2B-D1A8-4D3F-8035-9BE809D05A5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1008,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1020,16 +1019,16 @@
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1037,35 +1036,35 @@
         <v>171.5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1074,7 +1073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6C7967-0C46-4F3F-B2F4-DFA8B1F9707A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1091,7 +1090,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1108,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1119,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1130,29 +1129,29 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1161,7 +1160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934C48AF-819E-4283-8F6D-9ECFCE33CE5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1177,7 +1176,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1194,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -1205,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1216,18 +1215,18 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -1238,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1250,7 +1249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7D16AA-24F2-475C-807B-39CEEE6B996C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1268,7 +1267,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1279,32 +1278,32 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -1312,13 +1311,13 @@
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1327,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56142F3E-EDF4-4F94-8302-41BC26975020}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1345,7 +1344,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1356,35 +1355,35 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -1393,32 +1392,32 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1430,7 +1429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43685525-53DD-4FD6-B824-F75C315D0ACC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1448,7 +1447,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1459,35 +1458,35 @@
     </row>
     <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -1495,13 +1494,13 @@
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/Images_and_Data/Embedded_Qs/2_4_DEQ.xlsx
+++ b/Images_and_Data/Embedded_Qs/2_4_DEQ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CBA636-F1F5-49F5-AB3A-C0B19B40E8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="1125" windowWidth="20685" windowHeight="13995" activeTab="3"/>
+    <workbookView xWindow="29580" yWindow="270" windowWidth="20730" windowHeight="11565" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="3" r:id="rId1"/>
@@ -23,29 +24,23 @@
     <sheet name="8_" sheetId="10" r:id="rId9"/>
     <sheet name="9_" sheetId="11" r:id="rId10"/>
     <sheet name="10_" sheetId="12" r:id="rId11"/>
+    <sheet name="11_" sheetId="13" r:id="rId12"/>
+    <sheet name="12_" sheetId="14" r:id="rId13"/>
+    <sheet name="13_" sheetId="15" r:id="rId14"/>
+    <sheet name="14_" sheetId="16" r:id="rId15"/>
+    <sheet name="15_" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="116">
   <si>
     <t>Correct</t>
   </si>
@@ -324,12 +319,81 @@
   </si>
   <si>
     <t>If our initial population is 6 billion, and the population grows at a rate of α=.03, what is the population after 20 years (in billions)?</t>
+  </si>
+  <si>
+    <t>What does a low pass filter do?</t>
+  </si>
+  <si>
+    <t>It reduces the amplitude of an incoming signal</t>
+  </si>
+  <si>
+    <t>It removes the high frequency part of an incoming signal</t>
+  </si>
+  <si>
+    <t>It removes the low frequency part of an incoming signal</t>
+  </si>
+  <si>
+    <t>It removes out the high amplitude part of an incoming signal</t>
+  </si>
+  <si>
+    <t>It removes "noise" from an incoming signal</t>
+  </si>
+  <si>
+    <t>Yep!   This is why it is called "low pass": low frequencies are allowed to "pass", while high frequencies are removed.</t>
+  </si>
+  <si>
+    <t>This is often the purpose of a low pass filter, but "noise" in a signal can be of any frequency: "noise" is simply defined as the part of the signal that we are not interested in, just like a "weed" is just a plant we don't want in the garden.   So if the "noise" is a high frequency oscillations, then a low pass filter would remove it; but if the "noise" is a low frequency hum, it would not.</t>
+  </si>
+  <si>
+    <t>What drives electrons to move around a circuit?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current </t>
+  </si>
+  <si>
+    <t>Voltage difference</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>Capacitance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yep!  Electrons want to move from a high voltage area to a low voltage area. </t>
+  </si>
+  <si>
+    <t>Which of the following is a good way to think of voltage?  Mark all that are true</t>
+  </si>
+  <si>
+    <t>Voltage is a kind of energy</t>
+  </si>
+  <si>
+    <t>Voltage is like pressure in a fluid</t>
+  </si>
+  <si>
+    <t>Voltage is a place in the circuit where electrons are packed together</t>
+  </si>
+  <si>
+    <t>Voltage supplies the super power of any super hero with a lightning bolt on his or her chest</t>
+  </si>
+  <si>
+    <t>Yep!  This is hard to deny.</t>
+  </si>
+  <si>
+    <t>Yep!  Electrons don't like to be next to each other, so pushing a bunch of them together requires work.   This work gets stored as "potential energy" that can cause the electrons to move if they are allowed to.</t>
+  </si>
+  <si>
+    <t>Yep!  Just like pressure difference causes the force that drives fluid through a pipe, voltage difference causes the force that drives a current through a circuit</t>
+  </si>
+  <si>
+    <t>Yep!  The positive terminal of a battery is loaded with electrons packed together, just rarin' to get away.   An electron that reaches the negative terminal is moved back to the positive terminal by the stored energy of the battery: that's what a battery does.   (Note: this is all by convention.  In actuality, the process happens in reverse).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -375,6 +439,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,7 +759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -734,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -793,7 +863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -857,8 +927,458 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0436206-C619-481A-8482-30ECFD54024A}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9422B82-124E-4578-8C6D-DB48B6FB7A6E}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C9D576-B8D2-4D42-BF9E-71DA23405DF1}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D45884-D206-4E28-BFBE-4FC89205D14A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701A101D-BA31-4A75-94F2-6434729F2A23}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -904,7 +1424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -990,10 +1510,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1073,11 +1593,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1249,7 +1769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1326,7 +1846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1429,7 +1949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Images_and_Data/Embedded_Qs/2_4_DEQ.xlsx
+++ b/Images_and_Data/Embedded_Qs/2_4_DEQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CBA636-F1F5-49F5-AB3A-C0B19B40E8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68514B6-96D2-41B9-A8E1-396330FC97F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="270" windowWidth="20730" windowHeight="11565" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30165" yWindow="0" windowWidth="20730" windowHeight="12705" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="122">
   <si>
     <t>Correct</t>
   </si>
@@ -388,6 +388,24 @@
   </si>
   <si>
     <t>Yep!  The positive terminal of a battery is loaded with electrons packed together, just rarin' to get away.   An electron that reaches the negative terminal is moved back to the positive terminal by the stored energy of the battery: that's what a battery does.   (Note: this is all by convention.  In actuality, the process happens in reverse).</t>
+  </si>
+  <si>
+    <t>Consider a simple circuit with a battery and a resistor.   If the resistor is made smaller, what happens to the current?</t>
+  </si>
+  <si>
+    <t>It increases</t>
+  </si>
+  <si>
+    <t>It stays the same</t>
+  </si>
+  <si>
+    <t>It decreases</t>
+  </si>
+  <si>
+    <t>It depends on the voltage of the battery</t>
+  </si>
+  <si>
+    <t>Yep!  If the driving force for a flow (voltage) stays the same and the resistance to the flow decreases, the flow (i.e. the current) will increase.</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C9D576-B8D2-4D42-BF9E-71DA23405DF1}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1353,12 +1371,130 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D45884-D206-4E28-BFBE-4FC89205D14A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Images_and_Data/Embedded_Qs/2_4_DEQ.xlsx
+++ b/Images_and_Data/Embedded_Qs/2_4_DEQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68514B6-96D2-41B9-A8E1-396330FC97F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99861E4E-68FB-40C1-8E84-804D9315682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30165" yWindow="0" windowWidth="20730" windowHeight="12705" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30165" yWindow="0" windowWidth="20730" windowHeight="12705" firstSheet="1" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="3" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="13_" sheetId="15" r:id="rId14"/>
     <sheet name="14_" sheetId="16" r:id="rId15"/>
     <sheet name="15_" sheetId="17" r:id="rId16"/>
+    <sheet name="16_" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="138">
   <si>
     <t>Correct</t>
   </si>
@@ -406,6 +407,54 @@
   </si>
   <si>
     <t>Yep!  If the driving force for a flow (voltage) stays the same and the resistance to the flow decreases, the flow (i.e. the current) will increase.</t>
+  </si>
+  <si>
+    <t>What causes the voltage at the top capacitor plate to increase when the battery is attached to the RC circuit shown above?  Mark all that are true</t>
+  </si>
+  <si>
+    <t>The high voltage at the positive battery terminal drives electrons through the resistor towards  the capacitor plate</t>
+  </si>
+  <si>
+    <t>The resistor pushes electrons from left to right towards the capacitor plate</t>
+  </si>
+  <si>
+    <t>The top capacitor plate stays at zero voltage which attracts electrons</t>
+  </si>
+  <si>
+    <t>Electrons are attracted to the zero voltage of the lower plate but can't cross the gap because there is no conductive wire</t>
+  </si>
+  <si>
+    <t>Yep!  The electrons want to go to "ground" but can't because of the gap between the plates.</t>
+  </si>
+  <si>
+    <t>Yep!  The positive battery voltage will always be higher or equal to the top capacitor plate voltage, so electrons will only move from left to right through the resistor</t>
+  </si>
+  <si>
+    <t>The plot of the voltage at the capacitor plate looks like the change in the temperature of the milk returning to the environmental temperature.  How might the two things be similar?  (Mark all that are true)</t>
+  </si>
+  <si>
+    <t>Yep!  Surprising, huh?</t>
+  </si>
+  <si>
+    <t>The rate of change in each situation is determined by how far the state variable is from some steady state situation.</t>
+  </si>
+  <si>
+    <t>Yep!  This is the heart of the similarity: the milk heats more rapidly when its temperature is far from the environmental temperature, while the capacitor fills with electrons more rapidly when its voltage is much different than the battery voltage.</t>
+  </si>
+  <si>
+    <t>The two situations are governed by a similar diffrential equation</t>
+  </si>
+  <si>
+    <t>Milk is actually one kind of capacitor</t>
+  </si>
+  <si>
+    <t>Sadly, no.  These are two totally different physical systems that behave mathematically in a very similar way.</t>
+  </si>
+  <si>
+    <t>Both situations could be described as experiencing an "exponential decline"</t>
+  </si>
+  <si>
+    <t>Yep!  Even though both states are going "up", they both move exponentially toward some steady value, and so we can think of this as a "decline"</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D45884-D206-4E28-BFBE-4FC89205D14A}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1501,14 +1550,273 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701A101D-BA31-4A75-94F2-6434729F2A23}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942648D0-4D4B-41B6-90AE-016F518816A9}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Images_and_Data/Embedded_Qs/2_4_DEQ.xlsx
+++ b/Images_and_Data/Embedded_Qs/2_4_DEQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99861E4E-68FB-40C1-8E84-804D9315682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F2D49E-B107-4A42-B49D-84A73EBF3134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30165" yWindow="0" windowWidth="20730" windowHeight="12705" firstSheet="1" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30165" yWindow="0" windowWidth="20730" windowHeight="12705" firstSheet="4" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="3" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="14_" sheetId="16" r:id="rId15"/>
     <sheet name="15_" sheetId="17" r:id="rId16"/>
     <sheet name="16_" sheetId="18" r:id="rId17"/>
+    <sheet name="17_" sheetId="19" r:id="rId18"/>
+    <sheet name="18_" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="146">
   <si>
     <t>Correct</t>
   </si>
@@ -430,9 +432,6 @@
     <t>Yep!  The positive battery voltage will always be higher or equal to the top capacitor plate voltage, so electrons will only move from left to right through the resistor</t>
   </si>
   <si>
-    <t>The plot of the voltage at the capacitor plate looks like the change in the temperature of the milk returning to the environmental temperature.  How might the two things be similar?  (Mark all that are true)</t>
-  </si>
-  <si>
     <t>Yep!  Surprising, huh?</t>
   </si>
   <si>
@@ -445,9 +444,6 @@
     <t>The two situations are governed by a similar diffrential equation</t>
   </si>
   <si>
-    <t>Milk is actually one kind of capacitor</t>
-  </si>
-  <si>
     <t>Sadly, no.  These are two totally different physical systems that behave mathematically in a very similar way.</t>
   </si>
   <si>
@@ -455,6 +451,36 @@
   </si>
   <si>
     <t>Yep!  Even though both states are going "up", they both move exponentially toward some steady value, and so we can think of this as a "decline"</t>
+  </si>
+  <si>
+    <t>The plot of the voltage at the capacitor plate looks like the plot in the change in the temperature of the milk returning to the environmental temperature.  How might the two things be similar?  (Mark all that are true)</t>
+  </si>
+  <si>
+    <t>Milk is actually a special kind of capacitor</t>
+  </si>
+  <si>
+    <t>An RC circuit "filters" a high frequency signal because it can't move electrons fast enough to keep up with the input signal.   What would the effect of increasing the resistance of the resistor be in such a filter?</t>
+  </si>
+  <si>
+    <t>It would slow down the movement of electrons and so make V_out less responsive to the input signal</t>
+  </si>
+  <si>
+    <t>It would allow electrons to move more quickly and so make the V_out more responsive to the input signal</t>
+  </si>
+  <si>
+    <t>Yep!  A higher resistance would lower the current (given the same voltage difference), and it would take longer for V_out to approach the voltage at V_in</t>
+  </si>
+  <si>
+    <t>An RC circuit "filters" a high frequency signal because it can't move electrons fast enough to keep up with the input signal.   A larger resistor would make the circuit react even more slowly.   What would this do the "cutoff" frequency of the filter?</t>
+  </si>
+  <si>
+    <t>The cutoff frequency would go up: only really high frequencies would be filtered out</t>
+  </si>
+  <si>
+    <t>The cutoff frequency would go down: the filter would remove more mid-range frequencies with the larger resistor</t>
+  </si>
+  <si>
+    <t>Yep!  The higher resistor slows the response time of V_out to V_in, so you'd need an even lower frequency input signal in order to get through the filter.</t>
   </si>
 </sst>
 </file>
@@ -1668,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942648D0-4D4B-41B6-90AE-016F518816A9}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,9 +1704,9 @@
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1689,52 +1715,52 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1815,6 +1841,273 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EA420D-C62F-442A-B596-6E750D307568}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3008D204-02E8-467C-8A51-E4CB1DDBF11B}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Images_and_Data/Embedded_Qs/2_4_DEQ.xlsx
+++ b/Images_and_Data/Embedded_Qs/2_4_DEQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F2D49E-B107-4A42-B49D-84A73EBF3134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030152D2-293D-49EB-B8BD-C71A08D7B23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30165" yWindow="0" windowWidth="20730" windowHeight="12705" firstSheet="4" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30165" yWindow="0" windowWidth="20730" windowHeight="12705" firstSheet="4" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="3" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="16_" sheetId="18" r:id="rId17"/>
     <sheet name="17_" sheetId="19" r:id="rId18"/>
     <sheet name="18_" sheetId="20" r:id="rId19"/>
+    <sheet name="19_" sheetId="21" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="157">
   <si>
     <t>Correct</t>
   </si>
@@ -481,6 +482,39 @@
   </si>
   <si>
     <t>Yep!  The higher resistor slows the response time of V_out to V_in, so you'd need an even lower frequency input signal in order to get through the filter.</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>State Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In class, we will attempt to simulate a system governed by the differential equation above.   Assume that we will keep the circuit details (size of the resistor, etc…) the same and vary the input signal;  also assume that we want to know much of the input signal makes it through the filter, match the variables in the equation to the type of variable. </t>
+  </si>
+  <si>
+    <t>Value of V_out at a given moment</t>
+  </si>
+  <si>
+    <t>Amplitude of V_out</t>
+  </si>
+  <si>
+    <t>The size of the resistor R is a physical part of the circuit: here we are keeping that constant.</t>
+  </si>
+  <si>
+    <t>The size of the capacitor C is a physical part of the circuit: here we are keeping that constant.</t>
+  </si>
+  <si>
+    <t>The amplitude and frequency of the input signal is an independent variable: we are interested in how the filter reacts to different input signals</t>
+  </si>
+  <si>
+    <t>Frequency and amplitude of V_in</t>
+  </si>
+  <si>
+    <t>Like T in our coffee problem, V_out is our state variable: at any given moment, the "state of the system" is described by this value</t>
+  </si>
+  <si>
+    <t>The filter will reduce the amplitude of high frequency signals; this amplitude tells us which signals have been filtered and which made it through the filter.</t>
   </si>
 </sst>
 </file>
@@ -1852,7 +1886,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,7 +2106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3008D204-02E8-467C-8A51-E4CB1DDBF11B}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2160,12 +2194,160 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8316AAA5-458E-4626-9CFE-23320E38B09A}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="B1" sqref="B1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Images_and_Data/Embedded_Qs/2_4_DEQ.xlsx
+++ b/Images_and_Data/Embedded_Qs/2_4_DEQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030152D2-293D-49EB-B8BD-C71A08D7B23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDD365D-A5D3-43EF-BDB8-BF250429935C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30165" yWindow="0" windowWidth="20730" windowHeight="12705" firstSheet="4" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30165" yWindow="0" windowWidth="20730" windowHeight="12705" firstSheet="4" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="3" r:id="rId1"/>
@@ -1728,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942648D0-4D4B-41B6-90AE-016F518816A9}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,7 +2198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8316AAA5-458E-4626-9CFE-23320E38B09A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
